--- a/М4.Шаблон_таблицы_тест_кейсов ДЗ.xlsx
+++ b/М4.Шаблон_таблицы_тест_кейсов ДЗ.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="Workbook________"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Учёба Основы тестирования программного обеспечения\Видосы\Модуль 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3164780-F401-4461-96B0-BC1B90732617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="682" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -19,7 +13,7 @@
   <definedNames>
     <definedName name="Result">Sheet1!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>passed</t>
   </si>
@@ -401,8 +395,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +604,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -779,7 +782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -919,39 +922,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -977,6 +947,40 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1318,14 +1322,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Worksheet____1"/>
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -1353,13 +1357,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 F2">
       <formula1>$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B4 E6 K3" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B4 E6 K3">
       <formula1>Result</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1369,15 +1373,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:DT62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1421,7 +1425,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="15">
         <f>COUNTIF(L$8:L$43,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="15">
@@ -1466,7 +1470,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="16">
         <f>COUNTIF(L$8:L$43,"passed")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="16">
@@ -1509,7 +1513,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="21">
+        <v>43937</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="21"/>
       <c r="O3" s="10"/>
@@ -1593,43 +1599,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="57" t="s">
+      <c r="F6" s="69"/>
+      <c r="G6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="60"/>
+      <c r="J6" s="63"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="62" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="62" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="59"/>
+      <c r="P6" s="62"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="59"/>
+      <c r="R6" s="62"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="59"/>
+      <c r="T6" s="62"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1639,29 +1645,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="61"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="59"/>
+      <c r="L7" s="62"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="59"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="59"/>
+      <c r="P7" s="62"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="59"/>
+      <c r="R7" s="62"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="59"/>
+      <c r="T7" s="62"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1691,7 +1697,9 @@
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1712,7 +1720,7 @@
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="39" t="s">
         <v>25</v>
       </c>
@@ -1727,7 +1735,9 @@
       <c r="I9" s="27"/>
       <c r="J9" s="19"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1748,7 +1758,7 @@
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="39" t="s">
         <v>27</v>
       </c>
@@ -1763,7 +1773,9 @@
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="73" t="s">
+        <v>1</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -1784,7 +1796,7 @@
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="39" t="s">
         <v>31</v>
       </c>
@@ -1918,14 +1930,14 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="61" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="45"/>
@@ -1933,7 +1945,9 @@
       <c r="I12" s="20"/>
       <c r="J12" s="19"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="10"/>
@@ -1971,7 +1985,9 @@
       <c r="I13" s="20"/>
       <c r="J13" s="19"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5"/>
       <c r="O13" s="10"/>
@@ -1995,13 +2011,13 @@
       <c r="C14" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="59" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="3"/>
@@ -2030,7 +2046,7 @@
       <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="39" t="s">
@@ -2039,7 +2055,7 @@
       <c r="E15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="61" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="47"/>
@@ -2047,7 +2063,9 @@
       <c r="I15" s="50"/>
       <c r="J15" s="49"/>
       <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="L15" s="52" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="52"/>
       <c r="O15" s="10"/>
@@ -2083,7 +2101,9 @@
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="5"/>
       <c r="O16" s="10"/>
@@ -2140,7 +2160,7 @@
       <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="60" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -2221,7 +2241,7 @@
       <c r="E20" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="61" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="3"/>
@@ -2229,7 +2249,9 @@
       <c r="I20" s="20"/>
       <c r="J20" s="19"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="10"/>
       <c r="N20" s="5"/>
       <c r="O20" s="10"/>
@@ -2257,7 +2279,7 @@
       <c r="E21" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="61" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="3"/>
@@ -2265,7 +2287,9 @@
       <c r="I21" s="20"/>
       <c r="J21" s="19"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M21" s="10"/>
       <c r="N21" s="5"/>
       <c r="O21" s="10"/>
@@ -2303,7 +2327,9 @@
       <c r="I22" s="20"/>
       <c r="J22" s="19"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="10"/>
       <c r="N22" s="5"/>
       <c r="O22" s="10"/>
@@ -2339,7 +2365,9 @@
       <c r="I23" s="20"/>
       <c r="J23" s="19"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M23" s="10"/>
       <c r="N23" s="5"/>
       <c r="O23" s="10"/>
@@ -2375,7 +2403,9 @@
       <c r="I24" s="20"/>
       <c r="J24" s="19"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="73" t="s">
+        <v>1</v>
+      </c>
       <c r="M24" s="10"/>
       <c r="N24" s="5"/>
       <c r="O24" s="10"/>
@@ -3420,6 +3450,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3427,18 +3463,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L43 R12:R43 P12:P43 T12:T43 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N43" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L43 R12:R43 P12:P43 T12:T43 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N43">
       <formula1>Result</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11">
       <formula1>Result</formula1>
       <formula2>0</formula2>
     </dataValidation>
